--- a/Personal Plan.xlsx
+++ b/Personal Plan.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="总体计划" sheetId="1" r:id="rId1"/>
     <sheet name="信管师" sheetId="2" r:id="rId2"/>
     <sheet name="初快" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -76,32 +77,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>8月21日 交大慧谷培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月21日 交大慧谷培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立信培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础资料收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级建造师（机电）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Phase2 预习，模拟题
 8月21日 交大慧谷培训</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月21日 交大慧谷培训</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月21日 交大慧谷培训</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立信培训</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础资料收集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级建造师（机电）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础信息收集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -561,13 +562,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>10</v>
@@ -586,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="78" customHeight="1" x14ac:dyDescent="0.15">
@@ -597,25 +598,25 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -663,4 +664,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>